--- a/September'21/18.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/18.09.2021/Daily Sales Info Sep'21.xlsx
@@ -305,7 +305,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -314,7 +314,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 9 tarikh porjonto paid</t>
@@ -339,7 +339,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -348,7 +348,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Commission Sep''21</t>
@@ -363,7 +363,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -372,7 +372,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Milton Sim Sale 5</t>
@@ -387,7 +387,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -396,7 +396,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 milton DD Sale 1</t>
@@ -411,7 +411,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -420,7 +420,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Haruner sim=5
@@ -436,7 +436,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -445,7 +445,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Sopon Bp Sale Kit 5</t>
@@ -460,7 +460,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -469,7 +469,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Harun Sim Sale 5</t>
@@ -484,7 +484,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -493,7 +493,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Harun Kit Sale 3</t>
@@ -518,7 +518,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -527,7 +527,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Reatailer Hand 5 Sim</t>
@@ -834,7 +834,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,19 +919,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1573,21 +1560,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1659,13 +1646,13 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -24491,9 +24478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26216,9 +26203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R34" sqref="R34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29680,8 +29667,8 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
